--- a/public/excel/DanhSachThiSinh.xlsx
+++ b/public/excel/DanhSachThiSinh.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\07_Backup\Per\SapPhongThi\sapphongthi\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_SourceBK\HTsapphongthi\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A85217-D11B-498E-9CB6-9963AEEF53A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>STT</t>
   </si>
@@ -53,52 +54,55 @@
     <t>Trà Vinh</t>
   </si>
   <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn C</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn D</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn E</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn G</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn F</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn H</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Q</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn W</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn R</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn T</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn V</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Y</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Z</t>
+    <t>CCCD</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bình</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Chi</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Dương</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Em</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Khang</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thịnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Quân</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Điền</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Rang</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Tâm</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Vân</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Vũ</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thái</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,23 +444,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +479,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -493,12 +500,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -510,12 +517,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -527,12 +534,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -544,12 +551,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -561,7 +568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -578,12 +585,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -595,12 +602,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -612,12 +619,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -629,12 +636,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -646,12 +653,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -663,12 +670,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -680,12 +687,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -697,12 +704,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -714,12 +721,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -731,22 +738,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" s="2"/>
     </row>
   </sheetData>
